--- a/Social News Project/Intercoder/Intercoder Matt.xlsx
+++ b/Social News Project/Intercoder/Intercoder Matt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbarnidge/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbarnidge/Documents/GitHub/Social-News-Project/Social News Project/Intercoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A860939-71F0-E744-9298-63F0A046F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F2D92-AAC8-AE43-B696-7EFDE4705C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1160" windowWidth="27240" windowHeight="16040" xr2:uid="{C7441168-8FDB-2949-A690-1DCC767829D1}"/>
+    <workbookView xWindow="1680" yWindow="1960" windowWidth="18720" windowHeight="16040" xr2:uid="{C7441168-8FDB-2949-A690-1DCC767829D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Name 1</t>
   </si>
   <si>
-    <t>Y/N?</t>
-  </si>
-  <si>
     <t>Name 2</t>
   </si>
   <si>
@@ -608,14 +605,25 @@
   </si>
   <si>
     <t>timi</t>
+  </si>
+  <si>
+    <t>Y/N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -632,7 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,9 +657,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,835 +976,1966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E11D46-D435-584B-87C1-FEB347EA4327}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>73</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>78</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>82</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>84</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
         <v>86</v>
       </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>88</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>89</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>91</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>92</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
         <v>94</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>95</v>
       </c>
-      <c r="E61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
       <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>144</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>34</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>154</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>158</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>164</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>167</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
         <v>117</v>
       </c>
-      <c r="C73" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" t="s">
-        <v>136</v>
-      </c>
-      <c r="E84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>159</v>
-      </c>
-      <c r="C101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" t="s">
-        <v>161</v>
-      </c>
-      <c r="E102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" t="s">
-        <v>164</v>
-      </c>
-      <c r="E103" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" t="s">
-        <v>167</v>
-      </c>
-      <c r="E104" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>169</v>
-      </c>
-      <c r="C105" t="s">
-        <v>86</v>
-      </c>
-      <c r="E105" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
         <v>171</v>
       </c>
-      <c r="C107" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
         <v>173</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
         <v>175</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
         <v>176</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
         <v>178</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>179</v>
       </c>
-      <c r="E111" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
         <v>180</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
         <v>181</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
         <v>183</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
         <v>184</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="F115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
         <v>186</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
         <v>187</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
         <v>189</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
         <v>190</v>
       </c>
-      <c r="E117" t="s">
-        <v>191</v>
+      <c r="F117">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
